--- a/レビュー/第二回レビュー内容報告書.xlsx
+++ b/レビュー/第二回レビュー内容報告書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7603DF7C-423E-498D-BFF6-813B341396FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B30838-B2D4-481A-BCDD-ECD8008BCE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3E66C251-69F0-4312-A821-BA8CB380A20C}"/>
   </bookViews>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[最低賃金]の変更する方法をDB以外で、できるようにする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[login_id]の桁数を10桁に変更</t>
     <rPh sb="11" eb="13">
       <t>ケタスウ</t>
@@ -269,19 +265,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>右記の通り修正</t>
-    <rPh sb="0" eb="2">
-      <t>ウキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[登録者]と[更新者]あった方が良いんじゃない？</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -387,6 +370,26 @@
     <t>[面談実施日]が[create_date]はおかしくない？</t>
     <rPh sb="1" eb="6">
       <t>メンダンジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[最低賃金]の変更を画面からできるようにする</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左記の通り修正</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -653,211 +656,211 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53315CA4-7C29-4F28-B97A-A395386FEF44}">
   <dimension ref="B3:AU18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP21" sqref="AP21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1186,791 +1189,832 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:47" ht="42" x14ac:dyDescent="0.4">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
     </row>
     <row r="5" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="54" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="60" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="18" t="s">
+      <c r="O5" s="37"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="60" t="s">
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="61"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="21" t="s">
+      <c r="W5" s="37"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="36" t="s">
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="22" t="s">
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="42" t="s">
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="44"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="17"/>
     </row>
     <row r="6" spans="2:47" x14ac:dyDescent="0.4">
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="60" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="61"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="18">
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39">
         <v>45154</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="60" t="s">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="61"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="47"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="20"/>
     </row>
     <row r="8" spans="2:47" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="60" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="60" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="60" t="s">
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="61"/>
-      <c r="AL8" s="61"/>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="61"/>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="35" t="s">
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="35"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
     </row>
     <row r="9" spans="2:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="9" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="63" t="s">
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="64" t="s">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="64"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-      <c r="AP9" s="64"/>
-      <c r="AQ9" s="64"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
     </row>
     <row r="10" spans="2:47" x14ac:dyDescent="0.4">
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="67"/>
-      <c r="AK10" s="67"/>
-      <c r="AL10" s="67"/>
-      <c r="AM10" s="67"/>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="67"/>
-      <c r="AP10" s="67"/>
-      <c r="AQ10" s="67"/>
-      <c r="AR10" s="67"/>
-      <c r="AS10" s="68"/>
-      <c r="AT10" s="68"/>
-      <c r="AU10" s="68"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AO10" s="43"/>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
     </row>
     <row r="11" spans="2:47" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="68"/>
-      <c r="AT11" s="68"/>
-      <c r="AU11" s="68"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
     </row>
     <row r="12" spans="2:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="71" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="71"/>
-      <c r="AN12" s="71"/>
-      <c r="AO12" s="71"/>
-      <c r="AP12" s="71"/>
-      <c r="AQ12" s="71"/>
-      <c r="AR12" s="71"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="72"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="68"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="68"/>
+      <c r="AO12" s="68"/>
+      <c r="AP12" s="68"/>
+      <c r="AQ12" s="68"/>
+      <c r="AR12" s="68"/>
+      <c r="AS12" s="71"/>
+      <c r="AT12" s="71"/>
+      <c r="AU12" s="71"/>
     </row>
     <row r="13" spans="2:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="2">
         <v>5</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="7" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
     </row>
     <row r="14" spans="2:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="63"/>
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="63" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AH14" s="63"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="63"/>
-      <c r="AK14" s="63"/>
-      <c r="AL14" s="63"/>
-      <c r="AM14" s="63"/>
-      <c r="AN14" s="63"/>
-      <c r="AO14" s="63"/>
-      <c r="AP14" s="63"/>
-      <c r="AQ14" s="63"/>
-      <c r="AR14" s="63"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="65"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
     </row>
     <row r="15" spans="2:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="2">
         <v>7</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="70" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="70"/>
-      <c r="AJ15" s="70"/>
-      <c r="AK15" s="70"/>
-      <c r="AL15" s="70"/>
-      <c r="AM15" s="70"/>
-      <c r="AN15" s="70"/>
-      <c r="AO15" s="70"/>
-      <c r="AP15" s="70"/>
-      <c r="AQ15" s="70"/>
-      <c r="AR15" s="70"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="58"/>
+      <c r="AJ15" s="58"/>
+      <c r="AK15" s="58"/>
+      <c r="AL15" s="58"/>
+      <c r="AM15" s="58"/>
+      <c r="AN15" s="58"/>
+      <c r="AO15" s="58"/>
+      <c r="AP15" s="58"/>
+      <c r="AQ15" s="58"/>
+      <c r="AR15" s="58"/>
+      <c r="AS15" s="71"/>
+      <c r="AT15" s="71"/>
+      <c r="AU15" s="71"/>
     </row>
     <row r="16" spans="2:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="2">
         <v>8</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="6" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="70"/>
+      <c r="AM16" s="70"/>
+      <c r="AN16" s="70"/>
+      <c r="AO16" s="70"/>
+      <c r="AP16" s="70"/>
+      <c r="AQ16" s="70"/>
+      <c r="AR16" s="70"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
     </row>
     <row r="17" spans="2:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="2">
         <v>9</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="6" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="70"/>
+      <c r="AM17" s="70"/>
+      <c r="AN17" s="70"/>
+      <c r="AO17" s="70"/>
+      <c r="AP17" s="70"/>
+      <c r="AQ17" s="70"/>
+      <c r="AR17" s="70"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="72"/>
     </row>
     <row r="18" spans="2:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="2">
         <v>10</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="8"/>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="8"/>
-      <c r="AO18" s="8"/>
-      <c r="AP18" s="8"/>
-      <c r="AQ18" s="8"/>
-      <c r="AR18" s="8"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="57"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="AS18:AU18"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="AS17:AU17"/>
+    <mergeCell ref="AG12:AR12"/>
+    <mergeCell ref="AG13:AR13"/>
+    <mergeCell ref="AG16:AR16"/>
+    <mergeCell ref="AG17:AR17"/>
+    <mergeCell ref="AG18:AR18"/>
+    <mergeCell ref="AG15:AR15"/>
+    <mergeCell ref="M17:AF17"/>
+    <mergeCell ref="M18:AF18"/>
+    <mergeCell ref="M15:AF15"/>
+    <mergeCell ref="I9:L12"/>
+    <mergeCell ref="I14:L15"/>
+    <mergeCell ref="M10:AF10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:AF8"/>
+    <mergeCell ref="M11:AF11"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD5:AG6"/>
+    <mergeCell ref="C9:H18"/>
+    <mergeCell ref="AG8:AR8"/>
+    <mergeCell ref="M14:AF14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M12:AF12"/>
+    <mergeCell ref="M13:AF13"/>
+    <mergeCell ref="M16:AF16"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="M9:AF9"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AG9:AR9"/>
+    <mergeCell ref="AG10:AR10"/>
+    <mergeCell ref="Y5:AC5"/>
     <mergeCell ref="AG14:AR14"/>
     <mergeCell ref="B3:AU3"/>
     <mergeCell ref="AS8:AU8"/>
@@ -1987,47 +2031,6 @@
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="M9:AF9"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AG9:AR9"/>
-    <mergeCell ref="AG10:AR10"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:AF8"/>
-    <mergeCell ref="M11:AF11"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD5:AG6"/>
-    <mergeCell ref="C9:H18"/>
-    <mergeCell ref="AG8:AR8"/>
-    <mergeCell ref="M14:AF14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M12:AF12"/>
-    <mergeCell ref="M13:AF13"/>
-    <mergeCell ref="M16:AF16"/>
-    <mergeCell ref="M17:AF17"/>
-    <mergeCell ref="M18:AF18"/>
-    <mergeCell ref="M15:AF15"/>
-    <mergeCell ref="I9:L12"/>
-    <mergeCell ref="I14:L15"/>
-    <mergeCell ref="M10:AF10"/>
-    <mergeCell ref="AG12:AR12"/>
-    <mergeCell ref="AG13:AR13"/>
-    <mergeCell ref="AG16:AR16"/>
-    <mergeCell ref="AG17:AR17"/>
-    <mergeCell ref="AG18:AR18"/>
-    <mergeCell ref="AG15:AR15"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AS15:AU15"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="AS18:AU18"/>
-    <mergeCell ref="AS14:AU14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
